--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>description</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -927,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +943,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -953,8 +956,11 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -967,8 +973,11 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -981,8 +990,11 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -995,8 +1007,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1009,8 +1024,11 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1023,8 +1041,11 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1037,8 +1058,11 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1051,8 +1075,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1065,8 +1092,11 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1079,8 +1109,11 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1093,8 +1126,11 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1107,8 +1143,11 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1121,8 +1160,11 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1135,8 +1177,11 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1148,6 +1193,9 @@
       </c>
       <c r="D15" t="s">
         <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
